--- a/docs/Data Dictionary - Stock Web.xlsx
+++ b/docs/Data Dictionary - Stock Web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Stock_Web\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61558ADF-18D1-4969-85C9-B85E4995FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F9A9AB-EDB6-49FE-B683-105B3D512891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="584" xr2:uid="{0A072530-3DFE-4879-85B2-C1402CFC4903}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
   <si>
     <t>Column</t>
   </si>
@@ -153,9 +153,6 @@
     <t>varchar(255)</t>
   </si>
   <si>
-    <t>current_timestamp()</t>
-  </si>
-  <si>
     <t>history_transactions</t>
   </si>
   <si>
@@ -333,13 +330,7 @@
     <t>last_login_at</t>
   </si>
   <si>
-    <t>last_logout_at</t>
-  </si>
-  <si>
     <t>เวลาที่เข้าสู่ระบบครั้งล่าสุด</t>
-  </si>
-  <si>
-    <t>เวลาที่ออกจากระบบครั้งล่าสุด</t>
   </si>
   <si>
     <t>ขนาดของสินค้า (เช่น S, M, L, XL)</t>
@@ -439,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,6 +459,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478346CA-03DD-4A52-80ED-A7C541B30B82}">
   <dimension ref="B1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -975,96 +972,102 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1099,200 +1102,212 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
@@ -1304,30 +1319,28 @@
     </row>
     <row r="31" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>22</v>
@@ -1342,114 +1355,114 @@
       <c r="H32" s="4"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
+    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>22</v>
@@ -1464,76 +1477,72 @@
       <c r="H39" s="4"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+    <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="42" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>14</v>
@@ -1549,157 +1558,161 @@
         <v>34</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G49" s="7"/>
       <c r="H49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G51" s="7"/>
       <c r="H51" s="4"/>
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>22</v>
@@ -1714,114 +1727,116 @@
       <c r="H53" s="4"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="55" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
+    <row r="54" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="56" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="7"/>
+      <c r="H59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>77</v>
@@ -1836,33 +1851,31 @@
     </row>
     <row r="61" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G61" s="7"/>
       <c r="H61" s="4"/>
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>15</v>
@@ -1876,30 +1889,30 @@
     </row>
     <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>22</v>
@@ -1914,114 +1927,114 @@
       <c r="H64" s="4"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="66" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+    <row r="65" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="67" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I69" s="7"/>
     </row>
     <row r="70" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="7"/>
     </row>
     <row r="71" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>22</v>
@@ -2036,74 +2049,72 @@
       <c r="H71" s="4"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="73" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
+    <row r="72" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="74" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="9"/>
+      <c r="D74" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="7"/>
     </row>
     <row r="76" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>14</v>
@@ -2116,33 +2127,37 @@
         <v>18</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I76" s="7"/>
     </row>
     <row r="77" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="78" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>92</v>
@@ -2154,15 +2169,13 @@
         <v>15</v>
       </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="G78" s="7"/>
       <c r="H78" s="4"/>
       <c r="I78" s="7"/>
     </row>
     <row r="79" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>91</v>
@@ -2174,39 +2187,39 @@
         <v>15</v>
       </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H79" s="4"/>
       <c r="I79" s="7"/>
     </row>
     <row r="80" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F80" s="4"/>
       <c r="G80" s="7"/>
       <c r="H80" s="4"/>
       <c r="I80" s="7"/>
     </row>
     <row r="81" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>16</v>
@@ -2220,10 +2233,10 @@
     </row>
     <row r="82" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>22</v>
@@ -2240,10 +2253,10 @@
     </row>
     <row r="83" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>22</v>
@@ -2300,26 +2313,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:I41"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:I11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:I67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
